--- a/перенос в бланк заказа/39 версия ОБЩАЯ с  03.03.xlsx
+++ b/перенос в бланк заказа/39 версия ОБЩАЯ с  03.03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klimova\Desktop\39 версия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server\zayavki\39 версия\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1337">
   <si>
     <t>фасовка</t>
   </si>
@@ -13053,7 +13053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20:B21"/>
+      <selection pane="bottomLeft" activeCell="B372" sqref="B372:B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25398,7 +25398,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="15"/>
     </row>
-    <row r="347" spans="1:15" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="338" t="s">
         <v>1277</v>
       </c>
@@ -25435,8 +25435,10 @@
       <c r="N347" s="15"/>
       <c r="O347" s="15"/>
     </row>
-    <row r="348" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="338"/>
+    <row r="348" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="338" t="s">
+        <v>943</v>
+      </c>
       <c r="B348" s="678" t="s">
         <v>944</v>
       </c>
@@ -25470,8 +25472,10 @@
       <c r="N348" s="15"/>
       <c r="O348" s="15"/>
     </row>
-    <row r="349" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="338"/>
+    <row r="349" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="338" t="s">
+        <v>1106</v>
+      </c>
       <c r="B349" s="678" t="s">
         <v>1104</v>
       </c>
@@ -25505,8 +25509,10 @@
       <c r="N349" s="15"/>
       <c r="O349" s="15"/>
     </row>
-    <row r="350" spans="1:15" s="26" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="338"/>
+    <row r="350" spans="1:15" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="338" t="s">
+        <v>504</v>
+      </c>
       <c r="B350" s="678" t="s">
         <v>502</v>
       </c>
@@ -26869,8 +26875,10 @@
       <c r="N389" s="15"/>
       <c r="O389" s="15"/>
     </row>
-    <row r="390" spans="1:15" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="338"/>
+    <row r="390" spans="1:15" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="338" t="s">
+        <v>807</v>
+      </c>
       <c r="B390" s="263" t="s">
         <v>808</v>
       </c>
@@ -26904,8 +26912,10 @@
       <c r="N390" s="15"/>
       <c r="O390" s="15"/>
     </row>
-    <row r="391" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="338"/>
+    <row r="391" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="338" t="s">
+        <v>790</v>
+      </c>
       <c r="B391" s="263" t="s">
         <v>791</v>
       </c>
@@ -26939,8 +26949,10 @@
       <c r="N391" s="15"/>
       <c r="O391" s="15"/>
     </row>
-    <row r="392" spans="1:15" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="338"/>
+    <row r="392" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="338" t="s">
+        <v>911</v>
+      </c>
       <c r="B392" s="263" t="s">
         <v>910</v>
       </c>
@@ -30363,7 +30375,7 @@
       <c r="V490"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="92FMSqqtENXMwuKPfXfxI4Kxm6HKRQn7lFDgcirtbPXMR295pSubFRTIklm83QPzfOTTXvcn0U1dDcKb9A+zdg==" saltValue="1Ze/VOzxrDfW0B7qcRXRhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QiYfVowVclYzMRRB0Qpd3+16X8pVjrDBbGCSR2s171yqvFvUZ6F2XpOyaFHlKDgNJEKFo6F5dZidaLiuiipjCg==" saltValue="htxAr5Pd0VDJGR3NduZZNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <autoFilter ref="B1:B490"/>
   <mergeCells count="10">
     <mergeCell ref="E1:J1"/>
@@ -31360,8 +31372,8 @@
   <dimension ref="A1:L614"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A453" sqref="A453:A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
